--- a/example_files/DCF_test.xlsx
+++ b/example_files/DCF_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RichardHowes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8055363698cfa344/Desktop/2025/FINM3422/Equity Research/FINM3422_Group_59_Project_1/example_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{6E12D839-F12F-4AAE-A7F4-1A517E12AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="57600" windowHeight="15225" xr2:uid="{9C512562-84AC-48A5-8372-DBA7333E209E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9C512562-84AC-48A5-8372-DBA7333E209E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,12 +428,12 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -481,56 +481,56 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">10000*RAND()</f>
-        <v>2208.2345033647975</v>
+        <v>9644.3414988804579</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:L2" ca="1" si="1">10000*RAND()</f>
-        <v>8409.8376956278171</v>
+        <v>4448.6030335532423</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3066.8828470944377</v>
+        <v>2226.2609667046363</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2526.9807869424599</v>
+        <v>5389.5547586625698</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5670.4929558530966</v>
+        <v>5714.1489742306694</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6511.5203904288646</v>
+        <v>8115.3691051782425</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3202.6630331612882</v>
+        <v>2584.7408083367072</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1241.044536137601</v>
+        <v>6359.2051349523381</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>718.22839799915766</v>
+        <v>3885.1780722646868</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4387.7089278933399</v>
+        <v>9535.4348606104086</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7484.9108302150835</v>
+        <v>1426.8588933869785</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:M3" si="2">1/(1.05)^(C1-$B$1+1)</f>
+        <f t="shared" ref="C3:L3" si="2">1/(1.05)^(C1-$B$1+1)</f>
         <v>0.90702947845804982</v>
       </c>
       <c r="D3" s="3">
@@ -579,13 +579,13 @@
         <v>0.5846792890864374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">SUMPRODUCT(B2:L2,B3:L3)</f>
-        <v>34410.251669978708</v>
+        <v>45443.920303776205</v>
       </c>
     </row>
   </sheetData>
